--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94DE10E-175F-4EFF-A272-0098FB5F3968}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7170418A-114F-4A4D-B965-6DE4E9CE567D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Dag</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Coderen Fietssimulatie (onzeker van formules)</t>
+  </si>
+  <si>
+    <t>Coderen fietssimulatie</t>
   </si>
 </sst>
 </file>
@@ -374,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +404,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>8</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -479,6 +482,17 @@
       </c>
       <c r="C8" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43381</v>
+      </c>
+      <c r="B9">
+        <v>0.75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7170418A-114F-4A4D-B965-6DE4E9CE567D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15361D-5966-4B64-8602-E55ACAC93B02}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Dag</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Coderen fietssimulatie</t>
+  </si>
+  <si>
+    <t>Coderen fietssimulatie drag + timeslots</t>
+  </si>
+  <si>
+    <t>Keras/TF werkende krijgen</t>
+  </si>
+  <si>
+    <t>Keras bekijken/leren</t>
   </si>
 </sst>
 </file>
@@ -377,10 +386,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +413,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>8.75</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -493,6 +502,50 @@
       </c>
       <c r="C9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43382</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B11">
+        <v>1.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43387</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43387</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15361D-5966-4B64-8602-E55ACAC93B02}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A646D168-5BCA-400A-A016-138B9ED9FB34}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Dag</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Keras bekijken/leren</t>
+  </si>
+  <si>
+    <t>Simulatie bijwerken + fourrier</t>
+  </si>
+  <si>
+    <t>Model bedenken</t>
+  </si>
+  <si>
+    <t>Model implementeren in sim + aanpassen param simulatie</t>
   </si>
 </sst>
 </file>
@@ -386,10 +395,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +422,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>14.75</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -546,6 +555,50 @@
       </c>
       <c r="C13" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43389</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43393</v>
+      </c>
+      <c r="B15">
+        <v>3.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43393</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43394</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A646D168-5BCA-400A-A016-138B9ED9FB34}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9419C2F-686D-4527-926B-954ABFD93911}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Dag</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Model implementeren in sim + aanpassen param simulatie</t>
+  </si>
+  <si>
+    <t>Literatuur studie</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +425,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>22.25</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -599,6 +602,17 @@
       </c>
       <c r="C17" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43394</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9419C2F-686D-4527-926B-954ABFD93911}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D2E01-E090-4476-8AD2-47667887DA6F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Dag</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Literatuur studie</t>
+  </si>
+  <si>
+    <t>Fietssimulatie bijwerken</t>
+  </si>
+  <si>
+    <t>Preprocessing</t>
   </si>
 </sst>
 </file>
@@ -398,10 +404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +431,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>22.75</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,6 +619,51 @@
       </c>
       <c r="C18" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43399</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43406</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="str">
+        <f>C20</f>
+        <v>Fietssimulatie bijwerken</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D2E01-E090-4476-8AD2-47667887DA6F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409E1DB3-1BAF-4731-8E56-BD3466559D11}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Dag</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Preprocessing</t>
+  </si>
+  <si>
+    <t>Start creating model (LSTM)</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +434,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>29.75</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,6 +667,17 @@
       </c>
       <c r="C22" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43408</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409E1DB3-1BAF-4731-8E56-BD3466559D11}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D97BDF2-02BD-48BA-865F-1CFA8B99E866}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Dag</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Start creating model (LSTM)</t>
+  </si>
+  <si>
+    <t>Start creating model (Tree + forest)</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +437,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>33.75</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -678,6 +681,28 @@
       </c>
       <c r="C23" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43409</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43412</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D97BDF2-02BD-48BA-865F-1CFA8B99E866}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF19FF33-D1AA-4AA9-B768-7F538FFE3367}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Dag</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Start creating model (Tree + forest)</t>
+  </si>
+  <si>
+    <t>Fcc + trees &amp; forest analyze</t>
+  </si>
+  <si>
+    <t>Literatuurstudie (Passive aggressive algorithm)</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +443,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>36.75</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -703,6 +709,28 @@
       </c>
       <c r="C25" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43415</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43418</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF19FF33-D1AA-4AA9-B768-7F538FFE3367}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001CD79B-5666-4BC3-BF84-1408BDAA2122}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Dag</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Literatuurstudie (Passive aggressive algorithm)</t>
+  </si>
+  <si>
+    <t>In order brengen fietssimulatie + classificatie toevoegen</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +446,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>43.75</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,6 +734,28 @@
       </c>
       <c r="C27" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43419</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43421</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001CD79B-5666-4BC3-BF84-1408BDAA2122}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9BC57B-6404-4BBD-9DD7-4B7DBBEC4BDE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Dag</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>In order brengen fietssimulatie + classificatie toevoegen</t>
+  </si>
+  <si>
+    <t>PA</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +449,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>46.75</v>
+        <v>50.25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -756,6 +759,17 @@
       </c>
       <c r="C29" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43422</v>
+      </c>
+      <c r="B30">
+        <v>3.5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9BC57B-6404-4BBD-9DD7-4B7DBBEC4BDE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB6816C-90AB-4716-89FD-DBF905C91B39}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Dag</t>
   </si>
@@ -103,6 +104,9 @@
   </si>
   <si>
     <t>PA</t>
+  </si>
+  <si>
+    <t>"Online" versie van simulatie maken</t>
   </si>
 </sst>
 </file>
@@ -422,10 +426,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +453,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>50.25</v>
+        <v>54.25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,6 +774,17 @@
       </c>
       <c r="C30" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB6816C-90AB-4716-89FD-DBF905C91B39}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A927A-EB70-4721-8A7D-20CEB68CC26A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Dag</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>"Online" versie van simulatie maken</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>SGD</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +459,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>54.25</v>
+        <v>60.25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,6 +791,39 @@
       </c>
       <c r="C31" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43436</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43438</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A927A-EB70-4721-8A7D-20CEB68CC26A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DB3505-7AE4-45BD-8B9A-E01D56F1E01B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Dag</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>SGD</t>
+  </si>
+  <si>
+    <t>MSE avg + model in simulatie proberen</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>MSE avg + model in simulatie</t>
   </si>
 </sst>
 </file>
@@ -432,10 +441,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +468,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>60.25</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -824,6 +833,50 @@
       </c>
       <c r="C34" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43442</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43442</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43443</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43443</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DB3505-7AE4-45BD-8B9A-E01D56F1E01B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A285C1A-B304-44A0-9841-2454D05465C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Dag</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>MSE avg + model in simulatie</t>
+  </si>
+  <si>
+    <t>Postprocessing + ppt</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +471,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B99)</f>
-        <v>68.25</v>
+        <v>72.25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,6 +880,28 @@
       </c>
       <c r="C38" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43445</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43445</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D206CB41-DF7E-464B-9E8A-07BD20D8337B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05787FB-C065-44A6-92F6-13CF8C517643}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Dag</t>
   </si>
@@ -444,10 +444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2:B453)</f>
-        <v>78.25</v>
+        <v>79.25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,6 +923,17 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43449</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>30</v>
       </c>
     </row>
